--- a/Assets/GameAssets/Config/Heros.xlsx
+++ b/Assets/GameAssets/Config/Heros.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,23 +30,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001#1002#1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +402,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -410,16 +421,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -427,7 +438,22 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameAssets/Config/Heros.xlsx
+++ b/Assets/GameAssets/Config/Heros.xlsx
@@ -50,11 +50,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001#1002#1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001#1002#1003#1004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,11 +402,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
     <col min="5" max="5" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -421,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -444,7 +447,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>5</v>
